--- a/Übungen/02_Netzplan_Firmennetzwerk.xlsx
+++ b/Übungen/02_Netzplan_Firmennetzwerk.xlsx
@@ -623,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:BN51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN25" activeCellId="0" sqref="AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übungen/02_Netzplan_Firmennetzwerk.xlsx
+++ b/Übungen/02_Netzplan_Firmennetzwerk.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -119,9 +119,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -225,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -317,6 +318,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -346,7 +368,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,7 +497,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,12 +505,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -509,6 +539,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -624,10 +658,10 @@
   <dimension ref="A1:BN51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN25" activeCellId="0" sqref="AN25"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="2" style="2" width="3.83"/>
@@ -1210,9 +1244,15 @@
       <c r="B9" s="30"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="F9" s="32" t="n">
+        <f aca="false">C14</f>
+        <v>7</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34" t="n">
+        <f aca="false">F9+F11</f>
+        <v>10</v>
+      </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
@@ -1246,11 +1286,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
@@ -1282,18 +1324,18 @@
       <c r="AL10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
       <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
@@ -1324,18 +1366,16 @@
       <c r="AL11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
@@ -1366,18 +1406,16 @@
       <c r="AL12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
       <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
@@ -1408,24 +1446,45 @@
       <c r="AL13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="A14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34" t="n">
+        <f aca="false">A14+A16</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="32" t="n">
+        <f aca="false">C14</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34" t="n">
+        <f aca="false">F14+F16</f>
+        <v>13</v>
+      </c>
       <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="34" t="n">
+        <f aca="false">K14+K16</f>
+        <v>1</v>
+      </c>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
+      <c r="P14" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34" t="n">
+        <f aca="false">P14+P16</f>
+        <v>1</v>
+      </c>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0"/>
@@ -1448,21 +1507,32 @@
       <c r="AL14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
+      <c r="A15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0"/>
@@ -1485,21 +1555,32 @@
       <c r="AL15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0"/>
+      <c r="A16" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="F16" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
+      <c r="P16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0"/>
@@ -1522,21 +1603,24 @@
       <c r="AL16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="42"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0"/>
@@ -1560,12 +1644,12 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
@@ -1595,12 +1679,18 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="32" t="n">
+        <f aca="false">C14</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34" t="n">
+        <f aca="false">F19+F21</f>
+        <v>10</v>
+      </c>
       <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
@@ -1630,12 +1720,14 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
@@ -1667,9 +1759,11 @@
       <c r="A21" s="2"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="F21" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -1703,9 +1797,9 @@
       <c r="A22" s="2"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -1976,75 +2070,75 @@
       <c r="L37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="41"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="42"/>
+      <c r="L39" s="45"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="41"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="F40" s="44" t="s">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="F40" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="L40" s="42"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="L40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="42"/>
+      <c r="L41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="41"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="42"/>
+      <c r="L42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="41"/>
-      <c r="L43" s="42"/>
+      <c r="A43" s="44"/>
+      <c r="L43" s="45"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41"/>
-      <c r="B44" s="47" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="30" t="s">
@@ -2058,11 +2152,11 @@
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
-      <c r="L44" s="42"/>
+      <c r="L44" s="45"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41"/>
-      <c r="B45" s="47" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="30" t="s">
@@ -2076,11 +2170,11 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
-      <c r="L45" s="42"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41"/>
-      <c r="B46" s="47" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="30" t="s">
@@ -2094,11 +2188,11 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
-      <c r="L46" s="42"/>
+      <c r="L46" s="45"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41"/>
-      <c r="B47" s="47" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -2112,11 +2206,11 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
-      <c r="L47" s="42"/>
+      <c r="L47" s="45"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="41"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -2130,11 +2224,11 @@
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
-      <c r="L48" s="42"/>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="41"/>
-      <c r="B49" s="46" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="49" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="30" t="s">
@@ -2148,42 +2242,42 @@
       <c r="I49" s="30"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
-      <c r="L49" s="42"/>
+      <c r="L49" s="45"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="41"/>
-      <c r="B50" s="48" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="23">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
@@ -2193,7 +2287,12 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:J40"/>
     <mergeCell ref="C44:K44"/>

--- a/Übungen/02_Netzplan_Firmennetzwerk.xlsx
+++ b/Übungen/02_Netzplan_Firmennetzwerk.xlsx
@@ -124,7 +124,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,6 +168,26 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF651FFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Alegreya Sans"/>
@@ -188,7 +208,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,14 +235,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDD835"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2FF59"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFDE7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF57C00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF43A047"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFDE7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFDE7"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,10 +362,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -497,23 +547,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -521,59 +571,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -587,6 +637,22 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="GP" xfId="20"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -597,7 +663,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -623,8 +689,8 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFB2FF59"/>
+      <rgbColor rgb="FFFFFDE7"/>
       <rgbColor rgb="FFAADCF7"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -632,18 +698,18 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFDD835"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFF57C00"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF43A047"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF651FFF"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -658,7 +724,7 @@
   <dimension ref="A1:BN51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1330,10 +1396,17 @@
       <c r="D11" s="0"/>
       <c r="E11" s="37"/>
       <c r="F11" s="38" t="n">
+        <f aca="false">VLOOKUP(F10,$A$2:$Q$7,17)</f>
         <v>3</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="G11" s="39" t="n">
+        <f aca="false">H12-H9</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="40" t="n">
+        <f aca="false">K14-H9</f>
+        <v>3</v>
+      </c>
       <c r="I11" s="0"/>
       <c r="J11" s="37"/>
       <c r="K11" s="0"/>
@@ -1371,9 +1444,15 @@
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="41" t="n">
+        <f aca="false">H12-F11</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="42" t="n">
+        <f aca="false">K17</f>
+        <v>13</v>
+      </c>
       <c r="I12" s="0"/>
       <c r="J12" s="37"/>
       <c r="K12" s="0"/>
@@ -1468,22 +1547,24 @@
       <c r="I14" s="0"/>
       <c r="J14" s="43"/>
       <c r="K14" s="32" t="n">
-        <v>0</v>
+        <f aca="false">MAX(H9,H14,H19)</f>
+        <v>13</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="34" t="n">
         <f aca="false">K14+K16</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
       <c r="P14" s="32" t="n">
-        <v>0</v>
+        <f aca="false">M14</f>
+        <v>14</v>
       </c>
       <c r="Q14" s="33"/>
       <c r="R14" s="34" t="n">
         <f aca="false">P14+P16</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
@@ -1556,31 +1637,58 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38" t="n">
+        <f aca="false">VLOOKUP(A15,$A$2:$Q$7,17)</f>
         <v>7</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="39" t="n">
+        <f aca="false">C17-C14</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="40" t="n">
+        <f aca="false">MIN(F9,F14,F19)-C14</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="35"/>
       <c r="E16" s="0"/>
       <c r="F16" s="38" t="n">
+        <f aca="false">VLOOKUP(F15,$A$2:$Q$7,17)</f>
         <v>6</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="G16" s="39" t="n">
+        <f aca="false">H17-H14</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="40" t="n">
+        <f aca="false">K14-H14</f>
+        <v>0</v>
+      </c>
       <c r="I16" s="0"/>
       <c r="J16" s="35"/>
       <c r="K16" s="38" t="n">
+        <f aca="false">VLOOKUP(K15,$A$2:$Q$7,17)</f>
         <v>1</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
+      <c r="L16" s="39" t="n">
+        <f aca="false">M17-M14</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="40" t="n">
+        <f aca="false">P14-M14</f>
+        <v>0</v>
+      </c>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="38" t="n">
+        <f aca="false">VLOOKUP(P15,$A$2:$Q$7,17)</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
+      <c r="Q16" s="39" t="n">
+        <f aca="false">R17-R14</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0"/>
@@ -1603,24 +1711,48 @@
       <c r="AL16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="41" t="n">
+        <f aca="false">C17-A16</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="42" t="n">
+        <f aca="false">MIN(F12,F17,F22)</f>
+        <v>7</v>
+      </c>
       <c r="D17" s="0"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="42"/>
+      <c r="F17" s="41" t="n">
+        <f aca="false">H17-F16</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="42" t="n">
+        <f aca="false">K17</f>
+        <v>13</v>
+      </c>
       <c r="I17" s="0"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="42"/>
+      <c r="K17" s="41" t="n">
+        <f aca="false">M17-K16</f>
+        <v>13</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="42" t="n">
+        <f aca="false">P17</f>
+        <v>14</v>
+      </c>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="42"/>
+      <c r="P17" s="41" t="n">
+        <f aca="false">R17-P16</f>
+        <v>14</v>
+      </c>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="42" t="n">
+        <f aca="false">R14</f>
+        <v>15</v>
+      </c>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0"/>
@@ -1760,10 +1892,17 @@
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="38" t="n">
+        <f aca="false">VLOOKUP(F20,$A$2:$Q$7,17)</f>
         <v>3</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="G21" s="39" t="n">
+        <f aca="false">H22-H19</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="40" t="n">
+        <f aca="false">K14-H19</f>
+        <v>3</v>
+      </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -1797,9 +1936,15 @@
       <c r="A22" s="2"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="41" t="n">
+        <f aca="false">H22-F21</f>
+        <v>10</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="42" t="n">
+        <f aca="false">K17</f>
+        <v>13</v>
+      </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -2302,6 +2447,11 @@
     <mergeCell ref="C48:K48"/>
     <mergeCell ref="C49:K49"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q16 L16 G11 G16 G21 B16">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
